--- a/assets/board_pade/figure1.xlsx
+++ b/assets/board_pade/figure1.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apolia01\dash_page\assets\board_pade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEB06F5-B2D1-4FFD-B8E8-E7CD9149A13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F249735A-0760-473C-B710-FDD5EA0D1F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>area</t>
   </si>
@@ -47,9 +46,6 @@
     <t>negative</t>
   </si>
   <si>
-    <t>neyntral</t>
-  </si>
-  <si>
     <t>taxi</t>
   </si>
   <si>
@@ -63,6 +59,27 @@
   </si>
   <si>
     <t>tabacco</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>#3B6597</t>
   </si>
 </sst>
 </file>
@@ -70,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -425,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -540,19 +557,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -600,14 +607,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -630,14 +637,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -645,99 +652,95 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="85">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент1 2" xfId="57" xr:uid="{E2FD3B06-1634-45BA-BDDA-AB86860C862E}"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2 2" xfId="58" xr:uid="{0EE1527A-36BB-4E12-992B-7E7929838250}"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3 2" xfId="59" xr:uid="{67F0C14C-FC3D-43EB-B920-58A01C881C49}"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4 2" xfId="60" xr:uid="{BD2984C1-0870-4F05-8EA4-714923BAEFB7}"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5 2" xfId="61" xr:uid="{EEF545F3-0CE9-49B6-8703-2C96FA00CB3D}"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6 2" xfId="62" xr:uid="{C2BD0B74-13B5-4F4B-A02B-DF57703B0748}"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1 2" xfId="63" xr:uid="{31E019F5-374C-462F-876B-29CBF74975FB}"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2 2" xfId="64" xr:uid="{ADB7AC6A-4ED3-4DE9-98FF-9C27E57BA782}"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3 2" xfId="65" xr:uid="{0BA6EF07-9730-482D-AD84-756E55632857}"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4 2" xfId="66" xr:uid="{64082A5F-2498-4385-9688-1BEC9C691BB1}"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5 2" xfId="67" xr:uid="{73B541B1-DD7D-4E32-86E1-C8E7FF8AB21E}"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6 2" xfId="68" xr:uid="{380826BB-6684-475D-AE49-4805403103CC}"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1 2" xfId="69" xr:uid="{5DEB3005-8925-4BB4-8122-561F9798E65D}"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2 2" xfId="70" xr:uid="{6803FCF5-A570-44F2-9564-D71E3283022A}"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3 2" xfId="71" xr:uid="{DA363861-2EFF-4033-8EF6-C0E4B7AAD8AD}"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4 2" xfId="72" xr:uid="{45251368-4901-4DDE-8BBD-AF2B69831914}"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5 2" xfId="73" xr:uid="{D8161741-F714-4C81-B7F0-2860CB061F35}"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6 2" xfId="74" xr:uid="{445234B7-B0E2-4641-BF73-CCE6F0465752}"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="9" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="84">
+    <cellStyle name="20% — акцент1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1 2" xfId="56" xr:uid="{E2FD3B06-1634-45BA-BDDA-AB86860C862E}"/>
+    <cellStyle name="20% — акцент2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2 2" xfId="57" xr:uid="{0EE1527A-36BB-4E12-992B-7E7929838250}"/>
+    <cellStyle name="20% — акцент3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3 2" xfId="58" xr:uid="{67F0C14C-FC3D-43EB-B920-58A01C881C49}"/>
+    <cellStyle name="20% — акцент4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4 2" xfId="59" xr:uid="{BD2984C1-0870-4F05-8EA4-714923BAEFB7}"/>
+    <cellStyle name="20% — акцент5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5 2" xfId="60" xr:uid="{EEF545F3-0CE9-49B6-8703-2C96FA00CB3D}"/>
+    <cellStyle name="20% — акцент6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6 2" xfId="61" xr:uid="{C2BD0B74-13B5-4F4B-A02B-DF57703B0748}"/>
+    <cellStyle name="40% — акцент1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1 2" xfId="62" xr:uid="{31E019F5-374C-462F-876B-29CBF74975FB}"/>
+    <cellStyle name="40% — акцент2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2 2" xfId="63" xr:uid="{ADB7AC6A-4ED3-4DE9-98FF-9C27E57BA782}"/>
+    <cellStyle name="40% — акцент3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3 2" xfId="64" xr:uid="{0BA6EF07-9730-482D-AD84-756E55632857}"/>
+    <cellStyle name="40% — акцент4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4 2" xfId="65" xr:uid="{64082A5F-2498-4385-9688-1BEC9C691BB1}"/>
+    <cellStyle name="40% — акцент5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5 2" xfId="66" xr:uid="{73B541B1-DD7D-4E32-86E1-C8E7FF8AB21E}"/>
+    <cellStyle name="40% — акцент6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6 2" xfId="67" xr:uid="{380826BB-6684-475D-AE49-4805403103CC}"/>
+    <cellStyle name="60% — акцент1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1 2" xfId="68" xr:uid="{5DEB3005-8925-4BB4-8122-561F9798E65D}"/>
+    <cellStyle name="60% — акцент2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2 2" xfId="69" xr:uid="{6803FCF5-A570-44F2-9564-D71E3283022A}"/>
+    <cellStyle name="60% — акцент3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3 2" xfId="70" xr:uid="{DA363861-2EFF-4033-8EF6-C0E4B7AAD8AD}"/>
+    <cellStyle name="60% — акцент4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4 2" xfId="71" xr:uid="{45251368-4901-4DDE-8BBD-AF2B69831914}"/>
+    <cellStyle name="60% — акцент5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5 2" xfId="72" xr:uid="{D8161741-F714-4C81-B7F0-2860CB061F35}"/>
+    <cellStyle name="60% — акцент6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6 2" xfId="73" xr:uid="{445234B7-B0E2-4641-BF73-CCE6F0465752}"/>
+    <cellStyle name="Акцент1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="43" xr:uid="{5ED892A6-05F7-4ABE-861C-137F7ED6149B}"/>
-    <cellStyle name="Обычный 2 2" xfId="46" xr:uid="{C55C71C4-8090-4C57-9DB2-C3F45769D709}"/>
-    <cellStyle name="Обычный 2 2 2" xfId="75" xr:uid="{670849E8-C2BA-4FAA-9F9E-C5823F691805}"/>
-    <cellStyle name="Обычный 2 3" xfId="50" xr:uid="{3ACCE67E-6745-447C-8E97-566893CC3E27}"/>
-    <cellStyle name="Обычный 2 4" xfId="51" xr:uid="{C5EEACCA-97B1-42F8-9052-4EC77E398246}"/>
-    <cellStyle name="Обычный 3" xfId="47" xr:uid="{EA7C50C1-58F8-4E46-AF3C-A9D06CD87E50}"/>
-    <cellStyle name="Обычный 3 2" xfId="76" xr:uid="{D0CF1AEC-0B6B-4CAB-B00F-D1A29F50687D}"/>
-    <cellStyle name="Обычный 4" xfId="52" xr:uid="{B30A266C-9C08-4584-A72A-46C0435CED9C}"/>
-    <cellStyle name="Обычный 4 2" xfId="77" xr:uid="{AA3EF32E-6146-46E6-9553-3FBAE6CAE4C2}"/>
-    <cellStyle name="Обычный 5" xfId="53" xr:uid="{60896705-E72D-4087-909E-3DC796472566}"/>
-    <cellStyle name="Обычный 5 2" xfId="81" xr:uid="{5B2330CC-D2C2-4C97-9B2C-639856298129}"/>
-    <cellStyle name="Обычный 6" xfId="42" xr:uid="{34958412-8ECC-4609-AD3F-B1C0E9AA16CC}"/>
-    <cellStyle name="Плохой" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="48" xr:uid="{5009E256-A845-4692-856D-02DE2921BDA1}"/>
-    <cellStyle name="Примечание 2 2" xfId="78" xr:uid="{B7B89044-3167-4CA4-AC8C-350359D6471F}"/>
-    <cellStyle name="Примечание 3" xfId="45" xr:uid="{6F790CCC-BA38-4771-AFDF-6E37424CF9BD}"/>
-    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
-    <cellStyle name="Процентный 2" xfId="44" xr:uid="{CB5E658F-7840-478F-AE31-D32FE3F04A8A}"/>
-    <cellStyle name="Процентный 3" xfId="82" xr:uid="{BF3257D2-360F-4FEB-9024-4D79BE1ABE96}"/>
-    <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Финансовый 2" xfId="49" xr:uid="{8BE390BE-9C5D-4C3B-B46C-4895D6C71B45}"/>
-    <cellStyle name="Финансовый 2 2" xfId="54" xr:uid="{9D330609-E897-48EB-AC02-82A5450D3F8A}"/>
-    <cellStyle name="Финансовый 2 3" xfId="83" xr:uid="{DB918BDA-8EF6-4BF9-966B-92746FEEAE24}"/>
-    <cellStyle name="Финансовый 3" xfId="55" xr:uid="{7C06645F-0DB9-49C7-96F0-93E8C78EC57B}"/>
-    <cellStyle name="Финансовый 3 2" xfId="79" xr:uid="{5E46928D-4623-491C-8E60-DBE98056D81F}"/>
-    <cellStyle name="Финансовый 3 3" xfId="84" xr:uid="{BC977B74-E172-4BE6-9A7D-FEBB751BE72A}"/>
-    <cellStyle name="Финансовый 4" xfId="80" xr:uid="{0EAB47EA-1EEF-4AC8-A97C-D10B2E1F5862}"/>
-    <cellStyle name="Финансовый 5" xfId="56" xr:uid="{6054D14E-9AE2-49E6-A93A-1B10DC2AA4B1}"/>
-    <cellStyle name="Хороший" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Обычный 2" xfId="42" xr:uid="{5ED892A6-05F7-4ABE-861C-137F7ED6149B}"/>
+    <cellStyle name="Обычный 2 2" xfId="45" xr:uid="{C55C71C4-8090-4C57-9DB2-C3F45769D709}"/>
+    <cellStyle name="Обычный 2 2 2" xfId="74" xr:uid="{670849E8-C2BA-4FAA-9F9E-C5823F691805}"/>
+    <cellStyle name="Обычный 2 3" xfId="49" xr:uid="{3ACCE67E-6745-447C-8E97-566893CC3E27}"/>
+    <cellStyle name="Обычный 2 4" xfId="50" xr:uid="{C5EEACCA-97B1-42F8-9052-4EC77E398246}"/>
+    <cellStyle name="Обычный 3" xfId="46" xr:uid="{EA7C50C1-58F8-4E46-AF3C-A9D06CD87E50}"/>
+    <cellStyle name="Обычный 3 2" xfId="75" xr:uid="{D0CF1AEC-0B6B-4CAB-B00F-D1A29F50687D}"/>
+    <cellStyle name="Обычный 4" xfId="51" xr:uid="{B30A266C-9C08-4584-A72A-46C0435CED9C}"/>
+    <cellStyle name="Обычный 4 2" xfId="76" xr:uid="{AA3EF32E-6146-46E6-9553-3FBAE6CAE4C2}"/>
+    <cellStyle name="Обычный 5" xfId="52" xr:uid="{60896705-E72D-4087-909E-3DC796472566}"/>
+    <cellStyle name="Обычный 5 2" xfId="80" xr:uid="{5B2330CC-D2C2-4C97-9B2C-639856298129}"/>
+    <cellStyle name="Обычный 6" xfId="41" xr:uid="{34958412-8ECC-4609-AD3F-B1C0E9AA16CC}"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание 2" xfId="47" xr:uid="{5009E256-A845-4692-856D-02DE2921BDA1}"/>
+    <cellStyle name="Примечание 2 2" xfId="77" xr:uid="{B7B89044-3167-4CA4-AC8C-350359D6471F}"/>
+    <cellStyle name="Примечание 3" xfId="44" xr:uid="{6F790CCC-BA38-4771-AFDF-6E37424CF9BD}"/>
+    <cellStyle name="Процентный 2" xfId="43" xr:uid="{CB5E658F-7840-478F-AE31-D32FE3F04A8A}"/>
+    <cellStyle name="Процентный 3" xfId="81" xr:uid="{BF3257D2-360F-4FEB-9024-4D79BE1ABE96}"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Финансовый 2" xfId="48" xr:uid="{8BE390BE-9C5D-4C3B-B46C-4895D6C71B45}"/>
+    <cellStyle name="Финансовый 2 2" xfId="53" xr:uid="{9D330609-E897-48EB-AC02-82A5450D3F8A}"/>
+    <cellStyle name="Финансовый 2 3" xfId="82" xr:uid="{DB918BDA-8EF6-4BF9-966B-92746FEEAE24}"/>
+    <cellStyle name="Финансовый 3" xfId="54" xr:uid="{7C06645F-0DB9-49C7-96F0-93E8C78EC57B}"/>
+    <cellStyle name="Финансовый 3 2" xfId="78" xr:uid="{5E46928D-4623-491C-8E60-DBE98056D81F}"/>
+    <cellStyle name="Финансовый 3 3" xfId="83" xr:uid="{BC977B74-E172-4BE6-9A7D-FEBB751BE72A}"/>
+    <cellStyle name="Финансовый 4" xfId="79" xr:uid="{0EAB47EA-1EEF-4AC8-A97C-D10B2E1F5862}"/>
+    <cellStyle name="Финансовый 5" xfId="55" xr:uid="{6054D14E-9AE2-49E6-A93A-1B10DC2AA4B1}"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1015,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1032,7 @@
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,15 +1040,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>62318</v>
@@ -1056,10 +1062,13 @@
       <c r="D2" s="2">
         <v>31297</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>50670</v>
@@ -1070,10 +1079,13 @@
       <c r="D3" s="2">
         <v>34965</v>
       </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>80592</v>
@@ -1084,10 +1096,13 @@
       <c r="D4" s="2">
         <v>62438</v>
       </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>30676</v>
@@ -1098,22 +1113,28 @@
       <c r="D5" s="2">
         <v>30903</v>
       </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
         <v>12310.650000000001</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>30092.7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>3191.65</v>
       </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1123,172 +1144,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680592BA-6C63-46EC-8DC9-51C9F006F7E7}">
-  <dimension ref="B6:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="I6" s="5">
-        <v>72700</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="I7" s="5">
-        <v>66900</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I8">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <f>C6*$I6</f>
-        <v>30534</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ref="D11:E11" si="0">D6*$I6</f>
-        <v>29807</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>13086</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <f t="shared" ref="C12:E12" si="1">C7*$I7</f>
-        <v>24084</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>30105</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>12711</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C13">
-        <f t="shared" ref="C13:E13" si="2">C8*$I8</f>
-        <v>7700.0000000000009</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>41800</v>
-      </c>
-      <c r="E13">
-        <f>E8*$I8</f>
-        <v>5500</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <f>SUM(C11:C13)</f>
-        <v>62318</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ref="D16:E16" si="3">SUM(D11:D13)</f>
-        <v>101712</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
-        <v>31297</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/assets/board_pade/figure1.xlsx
+++ b/assets/board_pade/figure1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apolia01\dash_page\assets\board_pade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F249735A-0760-473C-B710-FDD5EA0D1F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDFFCDF-5C70-4B03-8114-99771E302B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>home appliances</t>
   </si>
   <si>
-    <t>tabacco</t>
-  </si>
-  <si>
     <t>neutral</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>#3B6597</t>
+  </si>
+  <si>
+    <t>tobacco</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,13 +1040,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1063,12 +1063,12 @@
         <v>31297</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2">
         <v>50670</v>
@@ -1080,7 +1080,7 @@
         <v>34965</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>62438</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1114,7 +1114,7 @@
         <v>30903</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1131,7 +1131,7 @@
         <v>3191.65</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
